--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/99/word_level_predictions_99.xlsx
@@ -1594,106 +1594,106 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1750,208 +1750,208 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Abnormal</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4506,104 +4506,104 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>7</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>3</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,109 +4813,109 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F86" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7389,133 +7389,133 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>12</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>14</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>12</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>15</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8718,156 +8718,156 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>Then</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E160" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>tap</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>tap</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>11</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>14</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Go</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>12</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/99/word_level_predictions_99.xlsx
@@ -1594,106 +1594,106 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>SD card speed low Change card .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1750,208 +1750,208 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Abnormal</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G30" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -4506,104 +4506,104 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4789,133 +4789,133 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>8</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Precision Landing Locating Landing Point .</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>8</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Precision Landing Locating Landing Point .</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Point</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>Precision Landing Locating Landing Point .</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>Precision Landing Locating Landing Point .</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>Point</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G134" t="b">
@@ -7413,109 +7413,109 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8718,156 +8718,156 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>14</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Then</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>10</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F160" s="2" t="inlineStr">
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>14</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>tap</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>11</v>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
         <v>14</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen Then tap Go .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>tap</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Go</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>12</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B162" s="2" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C162" s="2" t="inlineStr">
-        <is>
-          <t>Go</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11006,262 +11006,262 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
